--- a/public/document/Location Import - BackUp.xlsx
+++ b/public/document/Location Import - BackUp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\PROJECT ASSET PML\pml-apps\public\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD89C04A-1856-431C-9034-0745F0850D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C8E30-8202-41D7-BDB8-DBAB706B6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2101,17 +2101,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2403,7 +2402,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
@@ -2659,7 +2658,7 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="G14">
         <f>VLOOKUP(A14,Worksheet!B2:$B$190,1,FALSE)</f>
         <v>76872780</v>
@@ -2926,7 +2925,6 @@
       <c r="D28" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="7"/>
       <c r="G28">
         <f>VLOOKUP(A28,Worksheet!B25:$B$190,1,FALSE)</f>
         <v>1903007</v>
@@ -2963,7 +2961,6 @@
       <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="7"/>
       <c r="G30">
         <f>VLOOKUP(A30,Worksheet!B23:$B$190,1,FALSE)</f>
         <v>1903005</v>
